--- a/ShopifyBackupWeb/wwwroot/Data_Init/Out/ExportOut.xlsx
+++ b/ShopifyBackupWeb/wwwroot/Data_Init/Out/ExportOut.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>Image</t>
   </si>
@@ -101,307 +101,322 @@
     <t>Carrer</t>
   </si>
   <si>
+    <t>District Unisex Shirt / Black / 2XL</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>#LWF1196</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>#1015</t>
-  </si>
-  <si>
-    <t>Dwight@gmail.com</t>
-  </si>
-  <si>
-    <t>New Zealand Warriors Luggage Covers Unique K4 - Medium</t>
+    <t>admin@jhsams.com.au</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lest we Forget Tshirt  ANZAC Day in New Zealand - District Unisex Shirt / Black / 2XL</t>
   </si>
   <si>
     <t>ShopifyBackupWeb.Models.ShippingAddress</t>
   </si>
   <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>73130</t>
-  </si>
-  <si>
-    <t>2005 Dorchester Rd</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>King</t>
-  </si>
-  <si>
-    <t>#1014</t>
-  </si>
-  <si>
-    <t>IRISH UNBREAKABLE QUILT - King</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Alberta</t>
-  </si>
-  <si>
-    <t>P0X 1M0</t>
-  </si>
-  <si>
-    <t>410 N 4yh St</t>
-  </si>
-  <si>
-    <t>AB</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Mononoke Mask Studio Ghibli Cross Shoulder - M</t>
-  </si>
-  <si>
-    <t>Sweatshirt / M</t>
-  </si>
-  <si>
-    <t>#1013</t>
-  </si>
-  <si>
-    <t>FULL 3D POOH RAINBOW FLAG - Sweatshirt / M</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>98642</t>
-  </si>
-  <si>
-    <t>904 North 7th Circle</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>Hoodie / S</t>
-  </si>
-  <si>
-    <t>#1012</t>
-  </si>
-  <si>
-    <t>FULL 3D JACK RAINBOW FLAG - Hoodie / S</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>#1011</t>
-  </si>
-  <si>
-    <t>paul@gmail.com</t>
-  </si>
-  <si>
-    <t>CUTE NO FACE SLIP TANK TOP - L</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>01801</t>
-  </si>
-  <si>
-    <t>7 Floyd st</t>
-  </si>
-  <si>
-    <t>MI</t>
-  </si>
-  <si>
-    <t>CUTE NO FACE SLIP TANK TOP - M</t>
-  </si>
-  <si>
-    <t>Twin</t>
-  </si>
-  <si>
-    <t>#1010</t>
-  </si>
-  <si>
-    <t>Jayden@gmail.com</t>
-  </si>
-  <si>
-    <t>SCOTLAND QUILT 0703 - Twin</t>
-  </si>
-  <si>
-    <t>Ontario</t>
-  </si>
-  <si>
-    <t>PO box 90</t>
-  </si>
-  <si>
-    <t>Jayden Smith</t>
-  </si>
-  <si>
-    <t>ON</t>
-  </si>
-  <si>
-    <t>UNCLE � THE MYTH � DOCKING STATION</t>
-  </si>
-  <si>
-    <t>XS</t>
-  </si>
-  <si>
-    <t>#1009</t>
-  </si>
-  <si>
-    <t>uyennguyen@gmail.com</t>
-  </si>
-  <si>
-    <t>Australia Flag Kangaroo Women�s Leggings A5 - XS</t>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Queensland</t>
+  </si>
+  <si>
+    <t>4207</t>
+  </si>
+  <si>
+    <t>15 Palmcrest Road</t>
+  </si>
+  <si>
+    <t>GailRasmussen</t>
+  </si>
+  <si>
+    <t>QLD</t>
+  </si>
+  <si>
+    <t>Zip-Up Hoodie / S</t>
+  </si>
+  <si>
+    <t>#LWF1195</t>
+  </si>
+  <si>
+    <t>hoangmachuy@gmail.com</t>
+  </si>
+  <si>
+    <t>Aotearoa New Zealand - Maori Fern Tattoo Zipper Hoodie - T - Zip-Up Hoodie / S</t>
   </si>
   <si>
     <t>Vietnam</t>
   </si>
   <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>Nguyen Thi Thap</t>
+  </si>
+  <si>
+    <t>NguoiViet</t>
+  </si>
+  <si>
+    <t>#LWF1194</t>
+  </si>
+  <si>
+    <t>Men's Hoodie / S</t>
+  </si>
+  <si>
+    <t>Aotearoa Rugby Fern Hoodie Black White - T - Men's Hoodie / S</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>#LWF1193</t>
+  </si>
+  <si>
+    <t>TDF0G17091117000</t>
+  </si>
+  <si>
+    <t>quocquoc42@gmail.com</t>
+  </si>
+  <si>
+    <t>2222 - First</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>72000</t>
+  </si>
+  <si>
+    <t>Bình Dương</t>
+  </si>
+  <si>
+    <t>nghiemnghiem</t>
+  </si>
+  <si>
+    <t>Bình DươngHoa Sen</t>
+  </si>
+  <si>
+    <t>Zip-Up Hoodie / L</t>
+  </si>
+  <si>
+    <t>Aotearoa New Zealand - Maori Fern Tattoo Zipper Hoodie - T - Zip-Up Hoodie / L</t>
+  </si>
+  <si>
+    <t>#LWF1192</t>
+  </si>
+  <si>
+    <t>District Unisex Shirt / Royal Blue / S</t>
+  </si>
+  <si>
+    <t>#LWF1189</t>
+  </si>
+  <si>
+    <t>daonguyenkhanh2502@gmail.com</t>
+  </si>
+  <si>
+    <t>It's Where My Story Begins Tshirt - District Unisex Shirt / Royal Blue / S</t>
+  </si>
+  <si>
+    <t>Cafe Trung Nguyen</t>
+  </si>
+  <si>
+    <t>KhanhDao</t>
+  </si>
+  <si>
+    <t>District Unisex Shirt / Royal Blue / L</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>#LWF1188</t>
+  </si>
+  <si>
+    <t>gdonehue@xtra.co.nz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lest we Forget Tshirt  ANZAC Day in New Zealand - District Unisex Shirt / Royal Blue / L</t>
+  </si>
+  <si>
+    <t>could i have one black and one royal blue please</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Canterbury</t>
+  </si>
+  <si>
+    <t>7910</t>
+  </si>
+  <si>
+    <t>15 Cook Street</t>
+  </si>
+  <si>
+    <t>GarthDonehue</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>15 Cook StreetOceanview</t>
+  </si>
+  <si>
+    <t>#LWF1187</t>
+  </si>
+  <si>
+    <t>nhnvu511994@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lest we Forget Tshirt  ANZAC Day in New Zealand - District Unisex Shirt / Royal Blue / S</t>
+  </si>
+  <si>
     <t>700000</t>
   </si>
   <si>
-    <t>123 Nguyen Trai</t>
-  </si>
-  <si>
-    <t>UyenNguyen</t>
-  </si>
-  <si>
-    <t>Large</t>
-  </si>
-  <si>
-    <t>New Zealand Warriors Luggage Covers Unique K4 - Large</t>
-  </si>
-  <si>
-    <t>#1008</t>
-  </si>
-  <si>
-    <t>alan@gmail.com</t>
-  </si>
-  <si>
-    <t>I JUST NEED TO GO TO SCOTLAND - Large</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Southyorkshire</t>
-  </si>
-  <si>
-    <t>S73 8TT</t>
-  </si>
-  <si>
-    <t>1 Copeland road wombwell</t>
-  </si>
-  <si>
-    <t>I JUST NEED TO GO TO SCOTLAND - Medium</t>
-  </si>
-  <si>
-    <t>T-shirt / M</t>
-  </si>
-  <si>
-    <t>#1007</t>
-  </si>
-  <si>
-    <t>Raymond@gmail.com</t>
-  </si>
-  <si>
-    <t>FULL 3D JACK RAINBOW FLAG - T-shirt / M</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>80219</t>
-  </si>
-  <si>
-    <t>1680 south Dale court</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>#1006</t>
-  </si>
-  <si>
-    <t>Daniel@gmail.com</t>
-  </si>
-  <si>
-    <t>Deer Blanket - King</t>
-  </si>
-  <si>
-    <t>123 Fifth Ave</t>
-  </si>
-  <si>
-    <t>FULL 3D HIPPIE RAINBOW FLAG - Hoodie / S</t>
-  </si>
-  <si>
-    <t>#1005</t>
-  </si>
-  <si>
-    <t>tuym@gmail.com</t>
-  </si>
-  <si>
-    <t>Australia Flag Kangaroo Women�s Leggings A5 - M</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>Nguyen Thi Thap</t>
-  </si>
-  <si>
-    <t>NguoiViet</t>
-  </si>
-  <si>
-    <t>#1004</t>
-  </si>
-  <si>
-    <t>Toy@gmail.com</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>76177</t>
-  </si>
-  <si>
-    <t>15836 Coyote Hill Dr.</t>
-  </si>
-  <si>
-    <t>NguoiMy</t>
-  </si>
-  <si>
-    <t>TX</t>
-  </si>
-  <si>
-    <t>#1003</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>CUTE NO FACE SLIP TANK TOP - S</t>
-  </si>
-  <si>
-    <t>XL</t>
-  </si>
-  <si>
-    <t>#1001</t>
-  </si>
-  <si>
-    <t>CUTE NO FACE SLIP TANK TOP - XL</t>
-  </si>
-  <si>
-    <t>Buy cute no face</t>
+    <t>188 đường 14 phuớc bình quận 9</t>
+  </si>
+  <si>
+    <t>NguyenDao Khanh</t>
+  </si>
+  <si>
+    <t>#LWF1186</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>#LWF1185</t>
+  </si>
+  <si>
+    <t>P211</t>
+  </si>
+  <si>
+    <t>murrayhansford@hotmail.co.uk</t>
+  </si>
+  <si>
+    <t>Lest we Forget Black Mug – ANZAC Day in New Zealand - Black</t>
+  </si>
+  <si>
+    <t>PL15 8DY</t>
+  </si>
+  <si>
+    <t>Flat 2 Duchy House 12/14 Dutson Road</t>
+  </si>
+  <si>
+    <t>MurrayHansford</t>
+  </si>
+  <si>
+    <t>Zip-Up Hoodie / 2XL</t>
+  </si>
+  <si>
+    <t>#LWF1183</t>
+  </si>
+  <si>
+    <t>3DTSN001ZHS5</t>
+  </si>
+  <si>
+    <t>whearv@yahoo.com.au</t>
+  </si>
+  <si>
+    <t>Silver Fern All Over Zip Hoodie - Zip-Up Hoodie / 2XL</t>
+  </si>
+  <si>
+    <t>Western Australia</t>
+  </si>
+  <si>
+    <t>6112</t>
+  </si>
+  <si>
+    <t>5 Blythe Place</t>
+  </si>
+  <si>
+    <t>DavidWhear</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>Unisex Hoodie / Black / 2XL</t>
+  </si>
+  <si>
+    <t>#LWF1182</t>
+  </si>
+  <si>
+    <t>kiwicampnut@gmail.com</t>
+  </si>
+  <si>
+    <t>Lest we Forget Hoodie – ANZAC Day in New Zealand - Unisex Hoodie / Black / 2XL</t>
+  </si>
+  <si>
+    <t>8062</t>
+  </si>
+  <si>
+    <t>12 Fitzpatricks Lane</t>
+  </si>
+  <si>
+    <t>LindaRimmer</t>
+  </si>
+  <si>
+    <t>12 Fitzpatricks LaneLinwood</t>
+  </si>
+  <si>
+    <t>District Unisex Shirt / Black / 4XL</t>
+  </si>
+  <si>
+    <t>#LWF1174</t>
+  </si>
+  <si>
+    <t>m4moses@live.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lest we Forget Tshirt  ANZAC Day in New Zealand - District Unisex Shirt / Black / 4XL</t>
+  </si>
+  <si>
+    <t>6710</t>
+  </si>
+  <si>
+    <t>Second Ave</t>
+  </si>
+  <si>
+    <t>VickiTybura</t>
+  </si>
+  <si>
+    <t>Second Ave82 Ocean View Caravan Park</t>
+  </si>
+  <si>
+    <t>#LWF1133</t>
+  </si>
+  <si>
+    <t>peterbright8@bigpond.com</t>
+  </si>
+  <si>
+    <t>Manual Item Order</t>
+  </si>
+  <si>
+    <t>3338</t>
+  </si>
+  <si>
+    <t>30 Bernard Drive</t>
+  </si>
+  <si>
+    <t>PeterBright</t>
+  </si>
+  <si>
+    <t>#LWF1034</t>
+  </si>
+  <si>
+    <t>United Kingdom (Great Britain)</t>
   </si>
 </sst>
 </file>
@@ -409,7 +424,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,6 +441,13 @@
       <sz val="13"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -472,7 +494,7 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -790,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:X12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,6 +823,9 @@
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="19" width="21.28515625" customWidth="1"/>
     <col min="20" max="20" width="21.42578125" customWidth="1"/>
+    <col min="21" max="21" bestFit="1" width="8.28515625" customWidth="1"/>
+    <col min="22" max="22" bestFit="1" width="11.140625" customWidth="1"/>
+    <col min="23" max="23" bestFit="1" width="6.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" s="4" customFormat="1">
@@ -874,24 +899,22 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" ht="120.6" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>27</v>
@@ -900,7 +923,7 @@
         <v>28</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>29</v>
@@ -918,13 +941,13 @@
         <v>33</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>30</v>
@@ -933,686 +956,620 @@
       <c r="T2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="B3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>29</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="B4" s="0" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>29</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="B5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="E5" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>47</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>29</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="B6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>54</v>
-      </c>
       <c r="I6" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>29</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="B7" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>29</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="P7" s="0" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="B8" s="0" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="B9" s="0" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="B10" s="0" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>29</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="M10" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="R10" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="O10" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="P10" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q10" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="R10" s="0" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="B11" s="0" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>29</v>
       </c>
       <c r="K11" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="O11" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="M11" s="0" t="s">
+      <c r="P11" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="N11" s="0" t="s">
+      <c r="Q11" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="O11" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q11" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="R11" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="B12" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="0" t="s">
         <v>81</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>75</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>82</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>29</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="B13" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>84</v>
-      </c>
       <c r="H13" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>29</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="L13" s="0" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="B14" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="D14" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="L14" s="0" t="s">
-        <v>87</v>
-      </c>
       <c r="M14" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="R14" s="0" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="B15" s="0" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>29</v>
@@ -1621,110 +1578,104 @@
         <v>30</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="R15" s="0" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="B16" s="0" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J16" s="0" t="s">
         <v>29</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="B17" s="0" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J17" s="0" t="s">
         <v>29</v>
@@ -1733,303 +1684,124 @@
         <v>30</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="R17" s="0" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="B18" s="0" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="J18" s="0" t="s">
         <v>29</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="B19" s="0" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="J19" s="0" t="s">
         <v>29</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="L19" s="0" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="P19" s="0" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="Q19" s="0" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="R19" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="L20" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="M20" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="N20" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="O20" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="P20" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q20" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="R20" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="N21" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="O21" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="R21" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="J22" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="L22" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="M22" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="N22" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="O22" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="P22" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q22" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="R22" s="0" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/ShopifyBackupWeb/wwwroot/Data_Init/Out/ExportOut.xlsx
+++ b/ShopifyBackupWeb/wwwroot/Data_Init/Out/ExportOut.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\App\ShopifyBackupWeb\ShopifyBackupWeb\wwwroot\Data_Init\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\App\ShopifyApp\ShopifyBackupWeb\wwwroot\Data_Init\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>Image</t>
   </si>
@@ -38,6 +38,12 @@
     <t>Variant Title</t>
   </si>
   <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Total Price</t>
+  </si>
+  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -101,9 +107,15 @@
     <t>Carrer</t>
   </si>
   <si>
+    <t>https://cdn.shopify.com/s/files/1/0092/7773/4990/products/W6R46Zu9tXPyBg8YBH6D92GncrVsDu243bW7fr6e3e73MFXYAz_h8bx3f5hzutv.png?v=1551164254</t>
+  </si>
+  <si>
     <t>District Unisex Shirt / Black / 2XL</t>
   </si>
   <si>
+    <t>29.95</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -140,9 +152,15 @@
     <t>QLD</t>
   </si>
   <si>
+    <t>https://cdn.shopify.com/s/files/1/0092/7773/4990/products/t45g_1024x1024_acd10586-6107-4dad-b017-7e223e03e248.jpg?v=1558156035</t>
+  </si>
+  <si>
     <t>Zip-Up Hoodie / S</t>
   </si>
   <si>
+    <t>79.95</t>
+  </si>
+  <si>
     <t>#LWF1195</t>
   </si>
   <si>
@@ -170,15 +188,24 @@
     <t>#LWF1194</t>
   </si>
   <si>
+    <t>https://cdn.shopify.com/s/files/1/0092/7773/4990/products/front_1_large_420127bf-fd7d-4607-910a-a52eb904c3b9.jpg?v=1558147601</t>
+  </si>
+  <si>
     <t>Men's Hoodie / S</t>
   </si>
   <si>
     <t>Aotearoa Rugby Fern Hoodie Black White - T - Men's Hoodie / S</t>
   </si>
   <si>
+    <t>https://cdn.shopify.com/s/files/1/0092/7773/4990/products/20190717091117000-0.png?v=1563354687</t>
+  </si>
+  <si>
     <t>First</t>
   </si>
   <si>
+    <t>29.90</t>
+  </si>
+  <si>
     <t>#LWF1193</t>
   </si>
   <si>
@@ -215,6 +242,9 @@
     <t>#LWF1192</t>
   </si>
   <si>
+    <t>https://cdn.shopify.com/s/files/1/0092/7773/4990/products/d8bjzg4wC7dTR9urVVbpkRGufxAZWetnSq3pGVRAPPJx38FbWK_w426g3ht7y3d.png?v=1551164203</t>
+  </si>
+  <si>
     <t>District Unisex Shirt / Royal Blue / S</t>
   </si>
   <si>
@@ -233,6 +263,9 @@
     <t>KhanhDao</t>
   </si>
   <si>
+    <t>https://cdn.shopify.com/s/files/1/0092/7773/4990/products/d8bjzg4wC7dTR9urVVbpkRGufxAZWetnSq3pGVRAPPJx38FbWK_n3sgbz4ceddi.png?v=1551164254</t>
+  </si>
+  <si>
     <t>District Unisex Shirt / Royal Blue / L</t>
   </si>
   <si>
@@ -293,6 +326,9 @@
     <t>#LWF1186</t>
   </si>
   <si>
+    <t>https://cdn.shopify.com/s/files/1/0092/7773/4990/products/dwqvc4sphdbiych7gse3zl0g.png?v=1550295846</t>
+  </si>
+  <si>
     <t>Black</t>
   </si>
   <si>
@@ -317,9 +353,15 @@
     <t>MurrayHansford</t>
   </si>
   <si>
+    <t>https://cdn.shopify.com/s/files/1/0092/7773/4990/products/front_Hoodie_Jacket_7000x7000_with_zipper_1.jpg?v=1550312769</t>
+  </si>
+  <si>
     <t>Zip-Up Hoodie / 2XL</t>
   </si>
   <si>
+    <t>74.95</t>
+  </si>
+  <si>
     <t>#LWF1183</t>
   </si>
   <si>
@@ -347,7 +389,13 @@
     <t>WA</t>
   </si>
   <si>
+    <t>https://cdn.shopify.com/s/files/1/0092/7773/4990/products/4YfVHztrKe3HV47JRTPjMZw4cEJ89zT6eFgjatpsw7FjY4xnx6_932kfu17j61s.png?v=1550551290</t>
+  </si>
+  <si>
     <t>Unisex Hoodie / Black / 2XL</t>
+  </si>
+  <si>
+    <t>49.95</t>
   </si>
   <si>
     <t>#LWF1182</t>
@@ -812,20 +860,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="19" width="21.28515625" customWidth="1"/>
-    <col min="20" max="20" width="21.42578125" customWidth="1"/>
-    <col min="21" max="21" bestFit="1" width="8.28515625" customWidth="1"/>
-    <col min="22" max="22" bestFit="1" width="11.140625" customWidth="1"/>
-    <col min="23" max="23" bestFit="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="21" width="21.28515625" customWidth="1"/>
+    <col min="22" max="22" width="21.42578125" customWidth="1"/>
+    <col min="23" max="23" bestFit="1" width="8.28515625" customWidth="1"/>
+    <col min="24" max="24" bestFit="1" width="11.140625" customWidth="1"/>
+    <col min="25" max="25" bestFit="1" width="6.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" s="4" customFormat="1">
@@ -889,914 +937,1081 @@
       <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="X1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
     </row>
     <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>40</v>
+      </c>
       <c r="B3" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>49</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>40</v>
+        <v>50</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>40</v>
+      </c>
       <c r="B4" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="K4" s="0" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>49</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>40</v>
+        <v>50</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>52</v>
+      </c>
       <c r="B5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="0" t="s">
+      <c r="N5" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="O5" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>49</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="R5" s="0" t="s">
-        <v>40</v>
+        <v>50</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>55</v>
+      </c>
       <c r="B6" s="0" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>56</v>
+        <v>63</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>64</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="R6" s="0" t="s">
-        <v>40</v>
+        <v>65</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>40</v>
+      </c>
       <c r="B7" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>26</v>
-      </c>
       <c r="G7" s="0" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>56</v>
+        <v>63</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>64</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="R7" s="0" t="s">
-        <v>40</v>
+        <v>65</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="T7" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>40</v>
+      </c>
       <c r="B8" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="T8" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>52</v>
+      </c>
       <c r="B9" s="0" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>70</v>
+      </c>
       <c r="B10" s="0" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>40</v>
+        <v>30</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>33</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>66</v>
+        <v>48</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>75</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="R10" s="0" t="s">
-        <v>40</v>
+        <v>76</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="T10" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>77</v>
+      </c>
       <c r="B11" s="0" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>73</v>
+        <v>89</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="T11" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>77</v>
+      </c>
       <c r="B12" s="0" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>40</v>
+        <v>30</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>33</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="N12" s="0" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>85</v>
+        <v>94</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>95</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="R12" s="0" t="s">
-        <v>40</v>
+        <v>96</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="T12" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>77</v>
+      </c>
       <c r="B13" s="0" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>40</v>
+        <v>30</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>33</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="N13" s="0" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>85</v>
+        <v>94</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>95</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="R13" s="0" t="s">
-        <v>40</v>
+        <v>96</v>
+      </c>
+      <c r="S13" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="T13" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>98</v>
+      </c>
       <c r="B14" s="0" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="M14" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="N14" s="0" t="s">
-        <v>93</v>
+        <v>103</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>33</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>94</v>
+        <v>104</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>105</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>26</v>
+        <v>106</v>
+      </c>
+      <c r="S14" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>107</v>
+      </c>
       <c r="B15" s="0" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="K15" s="0" t="s">
         <v>30</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>30</v>
+        <v>118</v>
+      </c>
+      <c r="S15" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="T15" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>119</v>
+      </c>
       <c r="B16" s="0" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>73</v>
+        <v>89</v>
+      </c>
+      <c r="S16" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="T16" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>25</v>
+      </c>
       <c r="B17" s="0" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="L17" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="M17" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="N17" s="0" t="s">
+      <c r="O17" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q17" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="R17" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="O17" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="P17" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q17" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="R17" s="0" t="s">
-        <v>30</v>
+      <c r="S17" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="T17" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>98</v>
+      </c>
       <c r="B18" s="0" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>30</v>
+        <v>139</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>33</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="N18" s="0" t="s">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>126</v>
+        <v>140</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>141</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="R18" s="0" t="s">
-        <v>30</v>
+        <v>142</v>
+      </c>
+      <c r="S18" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="T18" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>98</v>
+      </c>
       <c r="B19" s="0" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>128</v>
+        <v>139</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>33</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="N19" s="0" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>94</v>
+        <v>104</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>105</v>
       </c>
       <c r="Q19" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="R19" s="0" t="s">
-        <v>128</v>
+        <v>106</v>
+      </c>
+      <c r="S19" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="T19" s="0" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/ShopifyBackupWeb/wwwroot/Data_Init/Out/ExportOut.xlsx
+++ b/ShopifyBackupWeb/wwwroot/Data_Init/Out/ExportOut.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Image</t>
   </si>
@@ -150,6 +150,99 @@
   </si>
   <si>
     <t>Bình DươngHoa Sen</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0092/7773/4990/products/W6R46Zu9tXPyBg8YBH6D92GncrVsDu243bW7fr6e3e73MFXYAz_h8bx3f5hzutv.png?v=1551164254</t>
+  </si>
+  <si>
+    <t>District Unisex Shirt / Black / 2XL</t>
+  </si>
+  <si>
+    <t>29.95</t>
+  </si>
+  <si>
+    <t>#LWF1196</t>
+  </si>
+  <si>
+    <t>admin@jhsams.com.au</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lest we Forget Tshirt  ANZAC Day in New Zealand - District Unisex Shirt / Black / 2XL</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Queensland</t>
+  </si>
+  <si>
+    <t>4207</t>
+  </si>
+  <si>
+    <t>15 Palmcrest Road</t>
+  </si>
+  <si>
+    <t>GailRasmussen</t>
+  </si>
+  <si>
+    <t>QLD</t>
+  </si>
+  <si>
+    <t>Zip-Up Hoodie / S</t>
+  </si>
+  <si>
+    <t>#LWF1195</t>
+  </si>
+  <si>
+    <t>hoangmachuy@gmail.com</t>
+  </si>
+  <si>
+    <t>Aotearoa New Zealand - Maori Fern Tattoo Zipper Hoodie - T - Zip-Up Hoodie / S</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>Nguyen Thi Thap</t>
+  </si>
+  <si>
+    <t>NguoiViet</t>
+  </si>
+  <si>
+    <t>#LWF1194</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0092/7773/4990/products/front_1_large_420127bf-fd7d-4607-910a-a52eb904c3b9.jpg?v=1558147601</t>
+  </si>
+  <si>
+    <t>Men's Hoodie / S</t>
+  </si>
+  <si>
+    <t>Aotearoa Rugby Fern Hoodie Black White - T - Men's Hoodie / S</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0092/7773/4990/products/20190717091117000-0.png?v=1563354687</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>29.90</t>
+  </si>
+  <si>
+    <t>#LWF1193</t>
+  </si>
+  <si>
+    <t>TDF0G17091117000</t>
+  </si>
+  <si>
+    <t>2222 - First</t>
+  </si>
+  <si>
+    <t>#LWF1192</t>
   </si>
 </sst>
 </file>
@@ -545,7 +638,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -700,6 +793,487 @@
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="T7" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="T8" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="T10" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/ShopifyBackupWeb/wwwroot/Data_Init/Out/ExportOut.xlsx
+++ b/ShopifyBackupWeb/wwwroot/Data_Init/Out/ExportOut.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="354">
   <si>
     <t>Image</t>
   </si>
@@ -105,6 +105,993 @@
   </si>
   <si>
     <t>Carrer</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0263/2260/0010/products/3r_4dd3d2eb-580c-4cc2-bfbd-6b7bd6d0b1b5.jpg?v=1567149240</t>
+  </si>
+  <si>
+    <t>2XL / HOODIE</t>
+  </si>
+  <si>
+    <t>45.99</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>#TBB101007</t>
+  </si>
+  <si>
+    <t>(615) 775-7062</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>lizzardzeller@gmail.com</t>
+  </si>
+  <si>
+    <t>Corn Black And White - 2XL / HOODIE</t>
+  </si>
+  <si>
+    <t>Omaha</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>68114</t>
+  </si>
+  <si>
+    <t>1004 Cole Creek Drive</t>
+  </si>
+  <si>
+    <t>ElizabethZeller</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0265/8680/8395/products/hoodie_05c5fbd2-fc7b-444f-bf11-8233abfbf344.jpg?v=1567823822</t>
+  </si>
+  <si>
+    <t>2XL / ZIP HOODIE</t>
+  </si>
+  <si>
+    <t>59.99</t>
+  </si>
+  <si>
+    <t>#TBB101006</t>
+  </si>
+  <si>
+    <t>(269) 216-8856</t>
+  </si>
+  <si>
+    <t>killabeekilled1977@gmail.com</t>
+  </si>
+  <si>
+    <t>Reds Black And White V3 - 2XL / ZIP HOODIE</t>
+  </si>
+  <si>
+    <t>Kalamazoo</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>49007</t>
+  </si>
+  <si>
+    <t>620 w. South st</t>
+  </si>
+  <si>
+    <t>BradyKlein</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>620 w. South st#3</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0254/5768/8662/products/H19082305-hoodie__21152__03653.1.jpg?v=1566634796</t>
+  </si>
+  <si>
+    <t>L / HOODIE</t>
+  </si>
+  <si>
+    <t>#TBB101005</t>
+  </si>
+  <si>
+    <t>(509) 989-9330</t>
+  </si>
+  <si>
+    <t>gregbehf@live.com</t>
+  </si>
+  <si>
+    <t>Foxr Black And White - L / HOODIE</t>
+  </si>
+  <si>
+    <t>MOSES LAKE</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>98837</t>
+  </si>
+  <si>
+    <t>601 S PIONEER WAY</t>
+  </si>
+  <si>
+    <t>GregoryBickle</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>601 S PIONEER WAYSTE. F #376</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0263/2260/0010/products/3q_febd5b2e-b4da-4d64-b66d-b3288588dc35.jpg?v=1567147936</t>
+  </si>
+  <si>
+    <t>#TBB101004</t>
+  </si>
+  <si>
+    <t>(239) 565-6535</t>
+  </si>
+  <si>
+    <t>hunnerlove@gmail.com</t>
+  </si>
+  <si>
+    <t>Buck Black And White - 2XL / HOODIE</t>
+  </si>
+  <si>
+    <t>Cape Coral</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>33990</t>
+  </si>
+  <si>
+    <t>1020 Southeast 19th Place</t>
+  </si>
+  <si>
+    <t>HunnerLove</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0265/8680/8395/products/hoodie_f9d90648-7dfa-4d08-8064-38c4f1f59751.jpg?v=1568001460</t>
+  </si>
+  <si>
+    <t>XL / HOODIE</t>
+  </si>
+  <si>
+    <t>#TBB101003</t>
+  </si>
+  <si>
+    <t>(503) 812-5697</t>
+  </si>
+  <si>
+    <t>Melissadevries88@gmail.com</t>
+  </si>
+  <si>
+    <t>O.Ducks Black And White V4 - XL / HOODIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tillamook </t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>97141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1770 tillamook river road #7 </t>
+  </si>
+  <si>
+    <t>AndreDevries</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0265/8680/8395/products/3c_aadf021d-5e39-4ab0-8301-78684a31c5ab.jpg?v=1567266265</t>
+  </si>
+  <si>
+    <t>#TBB101002</t>
+  </si>
+  <si>
+    <t>(403) 909-7917</t>
+  </si>
+  <si>
+    <t>falcons1744@gmail.com</t>
+  </si>
+  <si>
+    <t>Notr Black And White - L / HOODIE</t>
+  </si>
+  <si>
+    <t>Cochrane</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Alberta</t>
+  </si>
+  <si>
+    <t>T4C0V8</t>
+  </si>
+  <si>
+    <t>203 Fireside Parkway</t>
+  </si>
+  <si>
+    <t>AndersBoroff</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0265/8680/8395/products/3g_38e8c5e2-7b40-41ad-a3b5-bd6095bef759.jpg?v=1567824008</t>
+  </si>
+  <si>
+    <t>#TBB101001</t>
+  </si>
+  <si>
+    <t>(914) 420-4396</t>
+  </si>
+  <si>
+    <t>Kgunther@hvc.rr.com</t>
+  </si>
+  <si>
+    <t>Patr Black And White V3 - XL / HOODIE</t>
+  </si>
+  <si>
+    <t>Washingtonville</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>10992</t>
+  </si>
+  <si>
+    <t>20 Revere Circle</t>
+  </si>
+  <si>
+    <t>KimberleyGunther</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0265/1838/8770/products/product-image-953619550.jpg?v=1567944593</t>
+  </si>
+  <si>
+    <t>1pcs</t>
+  </si>
+  <si>
+    <t>1.92</t>
+  </si>
+  <si>
+    <t>#TBB091010</t>
+  </si>
+  <si>
+    <t>(415) 350-6624</t>
+  </si>
+  <si>
+    <t>25670605-1pcs</t>
+  </si>
+  <si>
+    <t>tsntartanz1994@gmail.com</t>
+  </si>
+  <si>
+    <t>1/2/4 Pcs Wall Mount Ingredient Spice Bottle Rack - 1pcs</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>94112</t>
+  </si>
+  <si>
+    <t>1126 Persia Ave</t>
+  </si>
+  <si>
+    <t>Test 10</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>#TBB091009</t>
+  </si>
+  <si>
+    <t>6232295763</t>
+  </si>
+  <si>
+    <t>leatarmen@gmail.com</t>
+  </si>
+  <si>
+    <t>SURPRISE</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>85374</t>
+  </si>
+  <si>
+    <t>13216 W DESERT ROCK DR</t>
+  </si>
+  <si>
+    <t>Test 9</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>#TBB091008</t>
+  </si>
+  <si>
+    <t>(423) 747-8383</t>
+  </si>
+  <si>
+    <t>choancut963@gmail.com</t>
+  </si>
+  <si>
+    <t>MEMPHIS</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>38107</t>
+  </si>
+  <si>
+    <t>769 N MCNEIL ST</t>
+  </si>
+  <si>
+    <t>Test 8</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>#TBB091007</t>
+  </si>
+  <si>
+    <t>(936) 539-6460</t>
+  </si>
+  <si>
+    <t>daonguyenkhanh2502@gmail.com</t>
+  </si>
+  <si>
+    <t>Conroe</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>77301</t>
+  </si>
+  <si>
+    <t>1809 N Roberson</t>
+  </si>
+  <si>
+    <t>Test 7</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>#TBB091006</t>
+  </si>
+  <si>
+    <t>(281) 687-4913</t>
+  </si>
+  <si>
+    <t>kid7313@gmail.com</t>
+  </si>
+  <si>
+    <t>Jacksonville</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>28540</t>
+  </si>
+  <si>
+    <t>708 Stonewall Avenue</t>
+  </si>
+  <si>
+    <t>Test 6</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>#TBB091005</t>
+  </si>
+  <si>
+    <t>(215) 694-1136</t>
+  </si>
+  <si>
+    <t>nhnvu511994@gmail.com</t>
+  </si>
+  <si>
+    <t>Horsham</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>19044</t>
+  </si>
+  <si>
+    <t>243 Pine Avenue</t>
+  </si>
+  <si>
+    <t>Test 5</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>#TBB091004</t>
+  </si>
+  <si>
+    <t>(512) 251-5203</t>
+  </si>
+  <si>
+    <t>vuilachinh99999@gmail.com</t>
+  </si>
+  <si>
+    <t>Pflugerville</t>
+  </si>
+  <si>
+    <t>78660</t>
+  </si>
+  <si>
+    <t>208 East Noton St.</t>
+  </si>
+  <si>
+    <t>Test 4</t>
+  </si>
+  <si>
+    <t>#TBB091003</t>
+  </si>
+  <si>
+    <t>1 (205) 393-5676</t>
+  </si>
+  <si>
+    <t>khanh.daonguyen94@gmail.com</t>
+  </si>
+  <si>
+    <t>Northport</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>35475</t>
+  </si>
+  <si>
+    <t>11944 Arbor Valley Parkway</t>
+  </si>
+  <si>
+    <t>Test 3</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>#TBB091002</t>
+  </si>
+  <si>
+    <t>(304) 933-3462</t>
+  </si>
+  <si>
+    <t>sp.teemelody@gmail.com</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>26330</t>
+  </si>
+  <si>
+    <t>2966 Meadland rd.</t>
+  </si>
+  <si>
+    <t>Test 2</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>#TBB091001</t>
+  </si>
+  <si>
+    <t>2654654976</t>
+  </si>
+  <si>
+    <t>hoangmachuy@gmail.com</t>
+  </si>
+  <si>
+    <t>Test 1</t>
+  </si>
+  <si>
+    <t>HO CHI MINH</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>72 duong 5</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0256/8483/6440/products/5a_4b0241a1-d678-4e9e-94af-6ae91137628f.jpg?v=1567107421</t>
+  </si>
+  <si>
+    <t>#TBB081013</t>
+  </si>
+  <si>
+    <t>(847) 366-7840</t>
+  </si>
+  <si>
+    <t>turtlesrule987@yahoo.com</t>
+  </si>
+  <si>
+    <t>Raid Black And White V1 - XL / HOODIE</t>
+  </si>
+  <si>
+    <t>Trevor</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>53179</t>
+  </si>
+  <si>
+    <t>25530 Runyard Way West</t>
+  </si>
+  <si>
+    <t>RonnyAnderson</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0263/2260/0010/products/hoodie_e51afce3-61cc-460d-8216-c69bd8836f7f.jpg?v=1567567937</t>
+  </si>
+  <si>
+    <t>#TBB081012</t>
+  </si>
+  <si>
+    <t>(906) 280-9148</t>
+  </si>
+  <si>
+    <t>nick_larson22@yahoo.com</t>
+  </si>
+  <si>
+    <t>Colt Black And White V3 - 2XL / HOODIE</t>
+  </si>
+  <si>
+    <t>GLADSTONE</t>
+  </si>
+  <si>
+    <t>49837</t>
+  </si>
+  <si>
+    <t>10 PINEWOOD DRIVE</t>
+  </si>
+  <si>
+    <t>NICKLARSON</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0265/8680/8395/products/hoodie_cf4f1706-c033-4354-bfce-a029ac6a6b9b.jpg?v=1567824207</t>
+  </si>
+  <si>
+    <t>5XL / HOODIE</t>
+  </si>
+  <si>
+    <t>#TBB081011</t>
+  </si>
+  <si>
+    <t>+1 803-810-4581</t>
+  </si>
+  <si>
+    <t>bigwayne1223@gmail.com</t>
+  </si>
+  <si>
+    <t>Pant Black And White V3 - 5XL / HOODIE</t>
+  </si>
+  <si>
+    <t>Spartanburg</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>29306-6503</t>
+  </si>
+  <si>
+    <t>1325 Old Canaan Rd</t>
+  </si>
+  <si>
+    <t>WaynePeters</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0263/2260/0010/products/hoodie_95556a41-9072-4a60-a9e4-89c63bd4aa1b.jpg?v=1567565664</t>
+  </si>
+  <si>
+    <t>3XL / HOODIE</t>
+  </si>
+  <si>
+    <t>#TBB081010</t>
+  </si>
+  <si>
+    <t>(440) 529-4582</t>
+  </si>
+  <si>
+    <t>snyderandrew747@gmail.com</t>
+  </si>
+  <si>
+    <t>Brow Black And White V3 - 3XL / HOODIE</t>
+  </si>
+  <si>
+    <t>Elyria</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>44035</t>
+  </si>
+  <si>
+    <t>221 Colgate Avenue</t>
+  </si>
+  <si>
+    <t>AndrewSnyder</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>XL / Long Sleeve</t>
+  </si>
+  <si>
+    <t>44.99</t>
+  </si>
+  <si>
+    <t>#TBB081009</t>
+  </si>
+  <si>
+    <t>+1 952-212-8650</t>
+  </si>
+  <si>
+    <t>erneljoyner@gmail.com</t>
+  </si>
+  <si>
+    <t>Viki Black And White V3 - XL / Long Sleeve</t>
+  </si>
+  <si>
+    <t>Minneapolis</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>55431</t>
+  </si>
+  <si>
+    <t>3500 West Old Shakopee Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ErneJoyner </t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0265/8680/8395/products/hoodie_9e9fbcdb-720c-4ea3-805e-f5d12e738a38.jpg?v=1567823980</t>
+  </si>
+  <si>
+    <t>4XL / HOODIE</t>
+  </si>
+  <si>
+    <t>#TBB081008</t>
+  </si>
+  <si>
+    <t>(862) 823-4815</t>
+  </si>
+  <si>
+    <t>dwalls58@yahoo.com</t>
+  </si>
+  <si>
+    <t>Gian Black And White V3 - 4XL / HOODIE</t>
+  </si>
+  <si>
+    <t>Paterson</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>07513</t>
+  </si>
+  <si>
+    <t>648 East 33rd Street</t>
+  </si>
+  <si>
+    <t>Lashawn Cheatom</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0254/5768/8662/products/0x1080_Limited-Edition-PPEG-B170_1.jpg?v=1566803046</t>
+  </si>
+  <si>
+    <t>SMALL</t>
+  </si>
+  <si>
+    <t>49.95</t>
+  </si>
+  <si>
+    <t>#TBB081007</t>
+  </si>
+  <si>
+    <t>+1 231-760-3833</t>
+  </si>
+  <si>
+    <t>caddomills052798@gmail.com</t>
+  </si>
+  <si>
+    <t>Eagl B170811 RUG - SMALL</t>
+  </si>
+  <si>
+    <t>Mount Pleasant</t>
+  </si>
+  <si>
+    <t>48858</t>
+  </si>
+  <si>
+    <t>605 South Main Street</t>
+  </si>
+  <si>
+    <t>AndrewLuchies</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0265/8680/8395/products/hoodie_73628bf7-95db-4f14-b296-c8c469c16e35.jpg?v=1567823750</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Chipp Black And White V4 - XL / HOODIE</t>
+  </si>
+  <si>
+    <t>#TBB081006</t>
+  </si>
+  <si>
+    <t>(774) 437-8353</t>
+  </si>
+  <si>
+    <t>jbjorkman0822@gmail.com</t>
+  </si>
+  <si>
+    <t>Patr Black And White V3 - 3XL / HOODIE</t>
+  </si>
+  <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>01501</t>
+  </si>
+  <si>
+    <t>19 Lesley Avenue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 Lesley ave Bjorkman </t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0263/2260/0010/products/hoodie_5236d862-81f9-4b4d-a5b4-cb1c0e28aa0d.jpg?v=1567565883</t>
+  </si>
+  <si>
+    <t>M / HOODIE</t>
+  </si>
+  <si>
+    <t>#TBB081005</t>
+  </si>
+  <si>
+    <t>(906) 286-9091</t>
+  </si>
+  <si>
+    <t>bmartz7791@gmail.com</t>
+  </si>
+  <si>
+    <t>Cowb Black And White V3 - M / HOODIE</t>
+  </si>
+  <si>
+    <t>Manistique</t>
+  </si>
+  <si>
+    <t>49854</t>
+  </si>
+  <si>
+    <t>6202w US HWY 2</t>
+  </si>
+  <si>
+    <t>BrianMartz</t>
+  </si>
+  <si>
+    <t>#TBB081004</t>
+  </si>
+  <si>
+    <t>1 (812) 709-0941</t>
+  </si>
+  <si>
+    <t>bev_taylor@yahoo.com</t>
+  </si>
+  <si>
+    <t>Colt Black And White V3 - XL / HOODIE</t>
+  </si>
+  <si>
+    <t>Loogootee</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>47553</t>
+  </si>
+  <si>
+    <t>1104 west Broadway st</t>
+  </si>
+  <si>
+    <t>BeverlyTaylor</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>#TBB081003</t>
+  </si>
+  <si>
+    <t>(740) 260-6513</t>
+  </si>
+  <si>
+    <t>southgateroad2019@gmail.com</t>
+  </si>
+  <si>
+    <t>Brow Black And White V3 - L / HOODIE</t>
+  </si>
+  <si>
+    <t>Cambridge</t>
+  </si>
+  <si>
+    <t>43725</t>
+  </si>
+  <si>
+    <t>62950 byesville rd lot 103</t>
+  </si>
+  <si>
+    <t>AngelaBivens</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0256/8483/6440/products/7b_2772673f-83bc-493e-96e0-42d1465e23bb.jpg?v=1567107513</t>
+  </si>
+  <si>
+    <t>#TBB081002</t>
+  </si>
+  <si>
+    <t>(970) 305-7806</t>
+  </si>
+  <si>
+    <t>wheeler.mark68@gmail.com</t>
+  </si>
+  <si>
+    <t>Soon Black And White - 2XL / ZIP HOODIE</t>
+  </si>
+  <si>
+    <t>North Platte</t>
+  </si>
+  <si>
+    <t>69101</t>
+  </si>
+  <si>
+    <t>102 East William Avenue</t>
+  </si>
+  <si>
+    <t>MarkWheeler</t>
+  </si>
+  <si>
+    <t>#TBB081001</t>
+  </si>
+  <si>
+    <t>+1 585-322-4802</t>
+  </si>
+  <si>
+    <t>ncaacrafty88@gmail.com</t>
+  </si>
+  <si>
+    <t>Brow Black And White V3 - XL / HOODIE</t>
+  </si>
+  <si>
+    <t>Leicester</t>
+  </si>
+  <si>
+    <t>14481</t>
+  </si>
+  <si>
+    <t>2905 Cuylerville Road</t>
+  </si>
+  <si>
+    <t>Neil Craft II</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0265/8680/8395/products/hoodie_0cd0a178-3974-489b-a7c4-896f54c94f94.jpg?v=1568000990</t>
+  </si>
+  <si>
+    <t>#TBB071050</t>
+  </si>
+  <si>
+    <t>(662) 549-7141</t>
+  </si>
+  <si>
+    <t>grandmabbstpierre@gmail.com</t>
+  </si>
+  <si>
+    <t>A.Tide Black And White V3 - 5XL / HOODIE</t>
+  </si>
+  <si>
+    <t>Columbus</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>39702</t>
+  </si>
+  <si>
+    <t>20 Donna Lane</t>
+  </si>
+  <si>
+    <t>BrendaStPierre</t>
+  </si>
+  <si>
+    <t>MS</t>
   </si>
 </sst>
 </file>
@@ -500,7 +1487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -594,28 +1581,1984 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="T7" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="T8" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="T10" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="T11" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="T12" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="S13" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="T13" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="S14" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="T14" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q15" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="S15" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="T15" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q16" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="R16" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="S16" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="T16" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q17" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="R17" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="S17" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="T17" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="O18" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q18" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="S18" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="T18" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="O19" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q19" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="R19" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="S19" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="T19" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="O20" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="P20" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q20" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="R20" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="S20" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="T20" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="P21" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q21" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="R21" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="S21" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="T21" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="P22" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q22" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="R22" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="S22" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="T22" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="O23" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="P23" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q23" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="R23" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="S23" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="T23" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q24" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="R24" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="S24" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="T24" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="O25" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="P25" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q25" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="R25" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="S25" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="T25" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="O26" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="P26" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q26" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="R26" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="S26" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="T26" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="O27" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="P27" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q27" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="R27" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="S27" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="T27" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N28" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="O28" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="P28" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q28" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="R28" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="S28" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="T28" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="O29" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="P29" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q29" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="R29" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="S29" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="T29" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N30" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="O30" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="P30" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q30" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="R30" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="S30" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="T30" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N31" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="O31" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="P31" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q31" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="R31" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="S31" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="T31" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="O32" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="P32" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q32" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="R32" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="S32" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="T32" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="M33" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="O33" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="P33" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q33" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="R33" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="S33" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="T33" s="0" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
